--- a/data/pca/factorExposure/factorExposure_2012-10-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-10-02.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.00151865491979538</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001909831124023927</v>
+      </c>
+      <c r="C2">
+        <v>0.02814515579617115</v>
+      </c>
+      <c r="D2">
+        <v>0.005642723084017392</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.0004642080527307194</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.006974713732086497</v>
+      </c>
+      <c r="C4">
+        <v>0.08276842019432334</v>
+      </c>
+      <c r="D4">
+        <v>0.07182498081549633</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0002088201991577194</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.0142186232614416</v>
+      </c>
+      <c r="C6">
+        <v>0.1140584033027289</v>
+      </c>
+      <c r="D6">
+        <v>0.02483584251998092</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.0006293290084832581</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.005023737821735532</v>
+      </c>
+      <c r="C7">
+        <v>0.05782383719087022</v>
+      </c>
+      <c r="D7">
+        <v>0.03437935079514639</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.0006129147458024957</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005907961944611019</v>
+      </c>
+      <c r="C8">
+        <v>0.03534408136858672</v>
+      </c>
+      <c r="D8">
+        <v>0.0397962488239167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.002718042330322175</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.00513042595900174</v>
+      </c>
+      <c r="C9">
+        <v>0.07016699709336738</v>
+      </c>
+      <c r="D9">
+        <v>0.07685695148406517</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.001314584239320632</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.005272866860472898</v>
+      </c>
+      <c r="C10">
+        <v>0.05575481078595024</v>
+      </c>
+      <c r="D10">
+        <v>-0.1939413171771808</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.003371853008633951</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005616776488314229</v>
+      </c>
+      <c r="C11">
+        <v>0.078841856141648</v>
+      </c>
+      <c r="D11">
+        <v>0.06612968695600679</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.001817587791214764</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004158970593721898</v>
+      </c>
+      <c r="C12">
+        <v>0.06435028905545738</v>
+      </c>
+      <c r="D12">
+        <v>0.05244104227080847</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.002585403153120708</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008234887428477828</v>
+      </c>
+      <c r="C13">
+        <v>0.06686088177245866</v>
+      </c>
+      <c r="D13">
+        <v>0.06285685824092029</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.002333444753643955</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.0006993593177264838</v>
+      </c>
+      <c r="C14">
+        <v>0.04225442813453482</v>
+      </c>
+      <c r="D14">
+        <v>0.01281140252677074</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0003042421377769253</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005866702267942579</v>
+      </c>
+      <c r="C15">
+        <v>0.04009102118824558</v>
+      </c>
+      <c r="D15">
+        <v>0.02995858484740356</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.0009015689319470893</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.004999897494997702</v>
+      </c>
+      <c r="C16">
+        <v>0.06374771505001119</v>
+      </c>
+      <c r="D16">
+        <v>0.058809855126762</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.0004386982537007616</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008819188717153859</v>
+      </c>
+      <c r="C20">
+        <v>0.06293697976162714</v>
+      </c>
+      <c r="D20">
+        <v>0.05217386652048834</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005862754260668727</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009211154238389885</v>
+      </c>
+      <c r="C21">
+        <v>0.01957545956776653</v>
+      </c>
+      <c r="D21">
+        <v>0.04305458449879175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.02370647078321893</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.007209480258936613</v>
+      </c>
+      <c r="C22">
+        <v>0.08605138280282132</v>
+      </c>
+      <c r="D22">
+        <v>0.1254582924501553</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.02349203251821496</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.00702216628633846</v>
+      </c>
+      <c r="C23">
+        <v>0.08650412383541307</v>
+      </c>
+      <c r="D23">
+        <v>0.1263684002840765</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.002740382336900107</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005565514026027336</v>
+      </c>
+      <c r="C24">
+        <v>0.07548392453120939</v>
+      </c>
+      <c r="D24">
+        <v>0.06929437352194538</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.00455932057478556</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003125209927937325</v>
+      </c>
+      <c r="C25">
+        <v>0.07740040001779479</v>
+      </c>
+      <c r="D25">
+        <v>0.0678820215610477</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.003736693155624523</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003639224826612765</v>
+      </c>
+      <c r="C26">
+        <v>0.03849128868284838</v>
+      </c>
+      <c r="D26">
+        <v>0.02546252462892831</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.007962589085353697</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.001477648896804677</v>
+      </c>
+      <c r="C28">
+        <v>0.1049356925857808</v>
+      </c>
+      <c r="D28">
+        <v>-0.3230327533502262</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.00138175304257814</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.00263802421998588</v>
+      </c>
+      <c r="C29">
+        <v>0.04860239054365331</v>
+      </c>
+      <c r="D29">
+        <v>0.0113534059791223</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.006127195686483935</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.009586381764310139</v>
+      </c>
+      <c r="C30">
+        <v>0.1408485632573096</v>
+      </c>
+      <c r="D30">
+        <v>0.1102757850914955</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.001273716934091488</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006292058298837225</v>
+      </c>
+      <c r="C31">
+        <v>0.04291111361398196</v>
+      </c>
+      <c r="D31">
+        <v>0.03397630549715993</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.002036282646194031</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.003586703484087007</v>
+      </c>
+      <c r="C32">
+        <v>0.03969808791143471</v>
+      </c>
+      <c r="D32">
+        <v>0.02392788420816692</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.001663657437678537</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.009104490465103992</v>
+      </c>
+      <c r="C33">
+        <v>0.08802068977842537</v>
+      </c>
+      <c r="D33">
+        <v>0.06652311506358961</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.003671084174366104</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.004186344969175262</v>
+      </c>
+      <c r="C34">
+        <v>0.05743762682028564</v>
+      </c>
+      <c r="D34">
+        <v>0.0588994388111054</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.0006444177700048625</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005273319785013525</v>
+      </c>
+      <c r="C35">
+        <v>0.04010742987426102</v>
+      </c>
+      <c r="D35">
+        <v>0.02175199086212913</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.00557240792696511</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.00157670584431789</v>
+      </c>
+      <c r="C36">
+        <v>0.02386417543225146</v>
+      </c>
+      <c r="D36">
+        <v>0.02750294578011469</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-2.267602231411546e-05</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.00932135237549978</v>
+      </c>
+      <c r="C38">
+        <v>0.03821710806754644</v>
+      </c>
+      <c r="D38">
+        <v>0.01491779696878796</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01382013803720434</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.001425539484783902</v>
+      </c>
+      <c r="C39">
+        <v>0.1130872093302034</v>
+      </c>
+      <c r="D39">
+        <v>0.07834422838166888</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.008281382909746499</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.003816385867300878</v>
+      </c>
+      <c r="C40">
+        <v>0.09118243742494664</v>
+      </c>
+      <c r="D40">
+        <v>0.01685437364312943</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.0004309187057360589</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007224405173881429</v>
+      </c>
+      <c r="C41">
+        <v>0.03868174330216242</v>
+      </c>
+      <c r="D41">
+        <v>0.0400803676337432</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002907241410181583</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003851533064360183</v>
+      </c>
+      <c r="C43">
+        <v>0.05237205101108291</v>
+      </c>
+      <c r="D43">
+        <v>0.02886978063031046</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.01399401024532793</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.002646729841583295</v>
+      </c>
+      <c r="C44">
+        <v>0.1039068972234928</v>
+      </c>
+      <c r="D44">
+        <v>0.06819609790679874</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001037745803943234</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.001607374864868898</v>
+      </c>
+      <c r="C46">
+        <v>0.03233772663025065</v>
+      </c>
+      <c r="D46">
+        <v>0.03562154832271114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.001716156854064852</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002109478862671302</v>
+      </c>
+      <c r="C47">
+        <v>0.03484606029469493</v>
+      </c>
+      <c r="D47">
+        <v>0.0230157977445684</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.002923569772193596</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006523938530921447</v>
+      </c>
+      <c r="C48">
+        <v>0.02974259852957055</v>
+      </c>
+      <c r="D48">
+        <v>0.03765469100712618</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.007297088151175731</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.0176409775937761</v>
+      </c>
+      <c r="C49">
+        <v>0.1901265929111695</v>
+      </c>
+      <c r="D49">
+        <v>0.006273526715616404</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0006152146727444721</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003534063531014274</v>
+      </c>
+      <c r="C50">
+        <v>0.04178513089148819</v>
+      </c>
+      <c r="D50">
+        <v>0.04063280430220471</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>5.076806595432152e-05</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.005018826553919781</v>
+      </c>
+      <c r="C51">
+        <v>0.02634477221276346</v>
+      </c>
+      <c r="D51">
+        <v>0.02174202513034729</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.001966193578983422</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02128436525001522</v>
+      </c>
+      <c r="C53">
+        <v>0.1710488555484383</v>
+      </c>
+      <c r="D53">
+        <v>0.02224292793104018</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001908856716593155</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.009090177246494292</v>
+      </c>
+      <c r="C54">
+        <v>0.05440076746308529</v>
+      </c>
+      <c r="D54">
+        <v>0.04398991354074022</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.003558695309164551</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009552447606991463</v>
+      </c>
+      <c r="C55">
+        <v>0.1076659370860721</v>
+      </c>
+      <c r="D55">
+        <v>0.03958048282927314</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.004178382269561277</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.0203768338546284</v>
+      </c>
+      <c r="C56">
+        <v>0.1753607031884713</v>
+      </c>
+      <c r="D56">
+        <v>0.01492876030617419</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.003571935533565161</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01895116638507635</v>
+      </c>
+      <c r="C58">
+        <v>0.1036906746858342</v>
+      </c>
+      <c r="D58">
+        <v>0.07330887456781118</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.007741763391363024</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.0104025484610519</v>
+      </c>
+      <c r="C59">
+        <v>0.1696667926001414</v>
+      </c>
+      <c r="D59">
+        <v>-0.3413870441106659</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.00227614885976091</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02512687006321648</v>
+      </c>
+      <c r="C60">
+        <v>0.2262541413422377</v>
+      </c>
+      <c r="D60">
+        <v>0.018018181911188</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.0124554240249028</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.001820202707781609</v>
+      </c>
+      <c r="C61">
+        <v>0.09412469943108578</v>
+      </c>
+      <c r="D61">
+        <v>0.05849831179353582</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1547626796030132</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1494961241011373</v>
+      </c>
+      <c r="C62">
+        <v>0.09728083439627143</v>
+      </c>
+      <c r="D62">
+        <v>0.02346692135118415</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.001307051701629716</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006395632122974271</v>
+      </c>
+      <c r="C63">
+        <v>0.05262701764186954</v>
+      </c>
+      <c r="D63">
+        <v>0.03535099985128362</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.002023199128321729</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01570114730695592</v>
+      </c>
+      <c r="C64">
+        <v>0.1046246719103307</v>
+      </c>
+      <c r="D64">
+        <v>0.05685742106770032</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.002381999302010802</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01759303803106425</v>
+      </c>
+      <c r="C65">
+        <v>0.1205622462067239</v>
+      </c>
+      <c r="D65">
+        <v>0.02941678811114847</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.004463343852762969</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01331530960135793</v>
+      </c>
+      <c r="C66">
+        <v>0.1611642960103398</v>
+      </c>
+      <c r="D66">
+        <v>0.1097664742881218</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.002408369839429894</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01562157262851024</v>
+      </c>
+      <c r="C67">
+        <v>0.07059389079825472</v>
+      </c>
+      <c r="D67">
+        <v>0.02564066051229602</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.006081909807829329</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.001163908781862581</v>
+      </c>
+      <c r="C68">
+        <v>0.08714652086533735</v>
+      </c>
+      <c r="D68">
+        <v>-0.2562288524680141</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.001097752906949952</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006494432949975208</v>
+      </c>
+      <c r="C69">
+        <v>0.05250077602823766</v>
+      </c>
+      <c r="D69">
+        <v>0.03788748305836057</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.0006740834929452603</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.002183652248753369</v>
+      </c>
+      <c r="C70">
+        <v>0.006355999322320817</v>
+      </c>
+      <c r="D70">
+        <v>0.001806399521991258</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.001512717278323216</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.005783326685938365</v>
+      </c>
+      <c r="C71">
+        <v>0.09168977899171643</v>
+      </c>
+      <c r="D71">
+        <v>-0.3004106888562529</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.004237331816803375</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01652475540069328</v>
+      </c>
+      <c r="C72">
+        <v>0.1571224934192413</v>
+      </c>
+      <c r="D72">
+        <v>0.01172546001663927</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.006648084579795061</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.0315639637665566</v>
+      </c>
+      <c r="C73">
+        <v>0.282774897898612</v>
+      </c>
+      <c r="D73">
+        <v>0.05383592205213482</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.006166571293972691</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.00196808801501295</v>
+      </c>
+      <c r="C74">
+        <v>0.1016525690895441</v>
+      </c>
+      <c r="D74">
+        <v>0.03639403818807083</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.004382542551979056</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01065821120183712</v>
+      </c>
+      <c r="C75">
+        <v>0.1218943483786526</v>
+      </c>
+      <c r="D75">
+        <v>0.02488926099355289</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.008572002129258821</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02236159749276623</v>
+      </c>
+      <c r="C76">
+        <v>0.1467821145140616</v>
+      </c>
+      <c r="D76">
+        <v>0.05818973655379259</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.001306848577750826</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02121783151605669</v>
+      </c>
+      <c r="C77">
+        <v>0.112567727463284</v>
+      </c>
+      <c r="D77">
+        <v>0.05398047286378396</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.001096609854651002</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01481769556848899</v>
+      </c>
+      <c r="C78">
+        <v>0.09615817004880392</v>
+      </c>
+      <c r="D78">
+        <v>0.08259187179453259</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02192186100263973</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03838818571780368</v>
+      </c>
+      <c r="C79">
+        <v>0.1560220720973948</v>
+      </c>
+      <c r="D79">
+        <v>0.03377946481101014</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006671170140078026</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.01006229620171279</v>
+      </c>
+      <c r="C80">
+        <v>0.0381544418243919</v>
+      </c>
+      <c r="D80">
+        <v>0.03003564804300936</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.0007707499379721144</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01577798626313276</v>
+      </c>
+      <c r="C81">
+        <v>0.129526095743121</v>
+      </c>
+      <c r="D81">
+        <v>0.03829505502400068</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.00439173467126674</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.01996875226123608</v>
+      </c>
+      <c r="C82">
+        <v>0.1384658873096601</v>
+      </c>
+      <c r="D82">
+        <v>0.03841748295716201</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.004516875076515609</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.01147435112737778</v>
+      </c>
+      <c r="C83">
+        <v>0.06268894025280596</v>
+      </c>
+      <c r="D83">
+        <v>0.04349306717383566</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01091900114465355</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01226081503478276</v>
+      </c>
+      <c r="C84">
+        <v>0.03776126557326846</v>
+      </c>
+      <c r="D84">
+        <v>-0.001832087598952191</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01379876705461666</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02895571531475992</v>
+      </c>
+      <c r="C85">
+        <v>0.1239019436924952</v>
+      </c>
+      <c r="D85">
+        <v>0.03777955007918363</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.003534299098173422</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.004400826903559779</v>
+      </c>
+      <c r="C86">
+        <v>0.05038222977547935</v>
+      </c>
+      <c r="D86">
+        <v>0.02719317903758323</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.002634777540502733</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01096868177718331</v>
+      </c>
+      <c r="C87">
+        <v>0.1271323492545109</v>
+      </c>
+      <c r="D87">
+        <v>0.07777996444099873</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01100862425815218</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.002970147263272565</v>
+      </c>
+      <c r="C88">
+        <v>0.06323516155180539</v>
+      </c>
+      <c r="D88">
+        <v>0.0269629274414068</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01234346294365344</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.001767048956241751</v>
+      </c>
+      <c r="C89">
+        <v>0.1398056993183691</v>
+      </c>
+      <c r="D89">
+        <v>-0.3169681899474758</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.004205888737036684</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.006768183242251574</v>
+      </c>
+      <c r="C90">
+        <v>0.1207851096684949</v>
+      </c>
+      <c r="D90">
+        <v>-0.3119192149333153</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>-0.001038461359828675</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01037715215224344</v>
+      </c>
+      <c r="C91">
+        <v>0.09945339609341591</v>
+      </c>
+      <c r="D91">
+        <v>0.0245245858181848</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.009474141231827354</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.0006182595394871301</v>
+      </c>
+      <c r="C92">
+        <v>0.1347555430912817</v>
+      </c>
+      <c r="D92">
+        <v>-0.3229252816541538</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.003553448547547767</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.004289052674031433</v>
+      </c>
+      <c r="C93">
+        <v>0.1053187856748882</v>
+      </c>
+      <c r="D93">
+        <v>-0.296738766554508</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.002755177121698587</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02157523882487991</v>
+      </c>
+      <c r="C94">
+        <v>0.1421989061815592</v>
+      </c>
+      <c r="D94">
+        <v>0.05383717381488502</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.002172519376640821</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01649037785642637</v>
+      </c>
+      <c r="C95">
+        <v>0.1217002171273475</v>
+      </c>
+      <c r="D95">
+        <v>0.06532438756851615</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.00620227407439428</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03681795696253859</v>
+      </c>
+      <c r="C97">
+        <v>0.2255347889074265</v>
+      </c>
+      <c r="D97">
+        <v>0.002060708725941501</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.002781053362180918</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03809239840279367</v>
+      </c>
+      <c r="C98">
+        <v>0.2586161299908787</v>
+      </c>
+      <c r="D98">
+        <v>0.03229810252969696</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9860208759515744</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9812790633045212</v>
+      </c>
+      <c r="C99">
+        <v>-0.1197532625754437</v>
+      </c>
+      <c r="D99">
+        <v>-0.02368521392954099</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.001309149626715767</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.002680496064346077</v>
+      </c>
+      <c r="C101">
+        <v>0.04872841048337323</v>
+      </c>
+      <c r="D101">
+        <v>0.01173851705882203</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
